--- a/tests/output/basic.xlsx
+++ b/tests/output/basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Repos\cardlatex\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC88CB9E-D6DA-4EAB-BDB6-85FB6443EAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC4E18B-07AC-429D-92F4-F004588A91D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13815" yWindow="10890" windowWidth="15210" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>art</t>
   </si>
@@ -31,16 +31,16 @@
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -406,10 +406,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -419,30 +422,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/basic.xlsx
+++ b/tests/output/basic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Repos\cardlatex\tests\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Repos\cardlatex\tests\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC4E18B-07AC-429D-92F4-F004588A91D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6192D0-70FE-4192-AC0C-81404938BB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13815" yWindow="10890" windowWidth="15210" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>background</t>
   </si>
   <si>
-    <t>hello</t>
+    <t>hello2</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
